--- a/data/trans_orig/P14B24_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>2856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8437</v>
+        <v>8509</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006656654088772928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002073785707446601</v>
+        <v>0.002077215122533498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01966219153137983</v>
+        <v>0.01983084079894468</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5623</v>
+        <v>6497</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005178147145444418</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01620235882358608</v>
+        <v>0.01871988362668863</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -784,19 +784,19 @@
         <v>4653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1767</v>
+        <v>1799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10253</v>
+        <v>10135</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00599553816110178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00227674686234125</v>
+        <v>0.002318190708415561</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0132099451621271</v>
+        <v>0.01305807792241072</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>426236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>420655</v>
+        <v>420583</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428202</v>
+        <v>428201</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9933433459112271</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.980337808468621</v>
+        <v>0.9801691592010554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9979262142925535</v>
+        <v>0.9979227848774666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -834,7 +834,7 @@
         <v>345258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>341432</v>
+        <v>340558</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -843,7 +843,7 @@
         <v>0.9948218528545556</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9837976411764134</v>
+        <v>0.9812801163733132</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>771494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>765894</v>
+        <v>766012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774380</v>
+        <v>774348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9940044618388982</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9867900548378729</v>
+        <v>0.9869419220775894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9977232531376587</v>
+        <v>0.9976818092915843</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>4062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1060</v>
+        <v>1096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9205</v>
+        <v>10570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01076821544575816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002811054297302223</v>
+        <v>0.002904587503619349</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02440188036154444</v>
+        <v>0.02801987064098037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -980,19 +980,19 @@
         <v>7525</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2922</v>
+        <v>3049</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16195</v>
+        <v>14477</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02021333602031024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007849256493118859</v>
+        <v>0.008190721621128027</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04350407833135568</v>
+        <v>0.03888704517791523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -1001,19 +1001,19 @@
         <v>11587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5918</v>
+        <v>5997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20404</v>
+        <v>20852</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01545956257212406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00789570234582081</v>
+        <v>0.008001160151179233</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02722298014593567</v>
+        <v>0.0278211109786816</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>373165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368022</v>
+        <v>366657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376167</v>
+        <v>376131</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9892317845542419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9755981196384552</v>
+        <v>0.9719801293590196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9971889457026978</v>
+        <v>0.9970954124963807</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -1051,19 +1051,19 @@
         <v>364748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356078</v>
+        <v>357796</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369351</v>
+        <v>369224</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9797866639796897</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9564959216686435</v>
+        <v>0.9611129548220835</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.992150743506881</v>
+        <v>0.9918092783788719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -1072,19 +1072,19 @@
         <v>737913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>729096</v>
+        <v>728648</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743582</v>
+        <v>743503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9845404374278759</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9727770198540646</v>
+        <v>0.9721788890213179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9921042976541792</v>
+        <v>0.9919988398488205</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7157</v>
+        <v>7140</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003948149383636435</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01373696415388119</v>
+        <v>0.0137042040978286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>6940</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2973</v>
+        <v>3093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14913</v>
+        <v>15280</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04177459007621832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0178972536781795</v>
+        <v>0.01861654855559897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08977114892655484</v>
+        <v>0.09198134399425623</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1218,19 +1218,19 @@
         <v>8997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4529</v>
+        <v>3686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17281</v>
+        <v>16796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01309312714737152</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006591845742601884</v>
+        <v>0.00536386113655701</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02514948707892665</v>
+        <v>0.02444290221081434</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>518955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513855</v>
+        <v>513872</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>521012</v>
@@ -1256,7 +1256,7 @@
         <v>0.9960518506163636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9862630358461189</v>
+        <v>0.9862957959021712</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>159183</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151210</v>
+        <v>150843</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163150</v>
+        <v>163030</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9582254099237817</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9102288510734456</v>
+        <v>0.9080186560057435</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9821027463218207</v>
+        <v>0.9813834514444008</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>646</v>
@@ -1289,19 +1289,19 @@
         <v>678138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>669854</v>
+        <v>670339</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>682606</v>
+        <v>683449</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9869068728526285</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9748505129210733</v>
+        <v>0.9755570977891858</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.993408154257398</v>
+        <v>0.994636138863443</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>17064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10431</v>
+        <v>10204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27432</v>
+        <v>27561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01484275821321991</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009073623831544463</v>
+        <v>0.008876167577452158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02386146183305758</v>
+        <v>0.02397351704633251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1414,19 +1414,19 @@
         <v>28987</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19694</v>
+        <v>19708</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40814</v>
+        <v>41735</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03509871249302408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02384561535872823</v>
+        <v>0.02386351758422022</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04941950286820933</v>
+        <v>0.05053433124656091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1435,19 +1435,19 @@
         <v>46051</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33681</v>
+        <v>33385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61155</v>
+        <v>60212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02331088432456884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01704912247934488</v>
+        <v>0.01689954530353075</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03095671328887122</v>
+        <v>0.03047924391648861</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1132574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1122206</v>
+        <v>1122077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1139207</v>
+        <v>1139434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9851572417867801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9761385381669424</v>
+        <v>0.9760264829536676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9909263761684557</v>
+        <v>0.991123832422548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>771</v>
@@ -1485,19 +1485,19 @@
         <v>796889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>785062</v>
+        <v>784141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>806182</v>
+        <v>806168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9649012875069759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9505804971317907</v>
+        <v>0.9494656687534391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9761543846412718</v>
+        <v>0.9761364824157798</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1857</v>
@@ -1506,19 +1506,19 @@
         <v>1929463</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1914359</v>
+        <v>1915302</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1941833</v>
+        <v>1942129</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9766891156754312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9690432867111288</v>
+        <v>0.9695207560835114</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9829508775206551</v>
+        <v>0.9831004546964692</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>10129</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5261</v>
+        <v>4926</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17172</v>
+        <v>17620</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01631795670872861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008475167140151672</v>
+        <v>0.007936497197130916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0276649809508234</v>
+        <v>0.02838779411931634</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1631,19 +1631,19 @@
         <v>46115</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32861</v>
+        <v>33616</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60409</v>
+        <v>61242</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06246522202838589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04451295751908774</v>
+        <v>0.04553537392159347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08182770429856827</v>
+        <v>0.08295630487374472</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1652,19 +1652,19 @@
         <v>56243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42959</v>
+        <v>42485</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74410</v>
+        <v>73328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0413872730627698</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03161207693622982</v>
+        <v>0.03126292473180101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05475580164497374</v>
+        <v>0.05395931334516395</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>610577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>603534</v>
+        <v>603086</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>615445</v>
+        <v>615780</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9836820432912714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9723350190491765</v>
+        <v>0.9716122058806836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.991524832859848</v>
+        <v>0.992063502802869</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>658</v>
@@ -1702,19 +1702,19 @@
         <v>692129</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677835</v>
+        <v>677002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>705383</v>
+        <v>704628</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9375347779716141</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9181722957014317</v>
+        <v>0.9170436951262551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9554870424809122</v>
+        <v>0.9544646260784065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1245</v>
@@ -1723,19 +1723,19 @@
         <v>1302707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1284540</v>
+        <v>1285622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1315991</v>
+        <v>1316465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9586127269372302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9452441983550266</v>
+        <v>0.946040686654836</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9683879230637706</v>
+        <v>0.9687370752681989</v>
       </c>
     </row>
     <row r="18">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4829</v>
+        <v>4045</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003313336107214264</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01681781793591863</v>
+        <v>0.01408821079189278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -1848,19 +1848,19 @@
         <v>55344</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42608</v>
+        <v>41836</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71644</v>
+        <v>73837</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05114814703501216</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03937776829457536</v>
+        <v>0.03866469506383596</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06621277012105141</v>
+        <v>0.06823979049447426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -1869,19 +1869,19 @@
         <v>56295</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43121</v>
+        <v>42496</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72511</v>
+        <v>72809</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04111613213514619</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03149444529240981</v>
+        <v>0.03103767574374348</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05295978414462287</v>
+        <v>0.05317764837460885</v>
       </c>
     </row>
     <row r="20">
@@ -1898,7 +1898,7 @@
         <v>286194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282316</v>
+        <v>283100</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -1907,7 +1907,7 @@
         <v>0.9966866638927857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9831821820640815</v>
+        <v>0.9859117892081081</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1919,19 +1919,19 @@
         <v>1026681</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1010381</v>
+        <v>1008188</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1039417</v>
+        <v>1040189</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9488518529649879</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9337872298789484</v>
+        <v>0.9317602095055261</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9606222317054246</v>
+        <v>0.961335304936164</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1213</v>
@@ -1940,19 +1940,19 @@
         <v>1312875</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1296659</v>
+        <v>1296361</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1326049</v>
+        <v>1326674</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9588838678648538</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.947040215855377</v>
+        <v>0.9468223516253909</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9685055547075901</v>
+        <v>0.9689623242562561</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>37119</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26311</v>
+        <v>27032</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50574</v>
+        <v>51642</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0109663942929821</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007773324182589301</v>
+        <v>0.007986159712646974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01494139389585309</v>
+        <v>0.01525706593138139</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -2065,19 +2065,19 @@
         <v>146707</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122546</v>
+        <v>121904</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171967</v>
+        <v>170686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04154128318604618</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03470000139815769</v>
+        <v>0.03451799011702678</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04869386942764116</v>
+        <v>0.04833121592058614</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -2086,19 +2086,19 @@
         <v>183826</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159261</v>
+        <v>158945</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214349</v>
+        <v>216474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02657825781244152</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02302655886222258</v>
+        <v>0.02298081462581959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03099129941466339</v>
+        <v>0.03129859005586525</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>3347702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3334247</v>
+        <v>3333179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3358510</v>
+        <v>3357789</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9890336057070179</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9850586061041469</v>
+        <v>0.9847429340686191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9922266758174108</v>
+        <v>0.9920138402873531</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3193</v>
@@ -2136,19 +2136,19 @@
         <v>3384889</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3359629</v>
+        <v>3360910</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3409050</v>
+        <v>3409692</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9584587168139538</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9513061305723588</v>
+        <v>0.9516687840794138</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9652999986018422</v>
+        <v>0.9654820098829732</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6379</v>
@@ -2157,19 +2157,19 @@
         <v>6732590</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6702067</v>
+        <v>6699942</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6757155</v>
+        <v>6757471</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9734217421875585</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9690087005853364</v>
+        <v>0.9687014099441347</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9769734411377771</v>
+        <v>0.9770191853741804</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>6829</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2650</v>
+        <v>2732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15860</v>
+        <v>15876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01247637011305746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00484182902451091</v>
+        <v>0.004990799080443264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02897342262466787</v>
+        <v>0.02900353695942161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -2524,19 +2524,19 @@
         <v>23004</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15218</v>
+        <v>15786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32534</v>
+        <v>33332</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04709913567101563</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03115788401441421</v>
+        <v>0.03232206502433609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06661196733654391</v>
+        <v>0.06824634599471785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -2545,19 +2545,19 @@
         <v>29833</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20700</v>
+        <v>21149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42560</v>
+        <v>41688</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02880208273648818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01998497974348894</v>
+        <v>0.02041811742056611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04108888487244054</v>
+        <v>0.0402475682946535</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>540558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>531527</v>
+        <v>531511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>544737</v>
+        <v>544655</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9875236298869426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9710265773753326</v>
+        <v>0.9709964630405776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9951581709754902</v>
+        <v>0.9950092009195559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>656</v>
@@ -2595,19 +2595,19 @@
         <v>465407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>455877</v>
+        <v>455079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>473193</v>
+        <v>472625</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9529008643289845</v>
+        <v>0.9529008643289844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9333880326634559</v>
+        <v>0.9317536540052821</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9688421159855856</v>
+        <v>0.9676779349756638</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1201</v>
@@ -2616,19 +2616,19 @@
         <v>1005965</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>993238</v>
+        <v>994110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1015098</v>
+        <v>1014649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9711979172635118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9589111151275594</v>
+        <v>0.9597524317053464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9800150202565111</v>
+        <v>0.9795818825794337</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>9809</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5274</v>
+        <v>5410</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17259</v>
+        <v>17318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02029875266377659</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0109151773551021</v>
+        <v>0.01119582325689886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03571761288516712</v>
+        <v>0.03583931742110032</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2741,19 +2741,19 @@
         <v>22243</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15032</v>
+        <v>15599</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31734</v>
+        <v>32654</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05264673763622373</v>
+        <v>0.05264673763622375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03557971771829391</v>
+        <v>0.03692174459509687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07511238063812792</v>
+        <v>0.07728849705273162</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2762,19 +2762,19 @@
         <v>32051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23845</v>
+        <v>23728</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43920</v>
+        <v>43009</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0353884052317311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02632756385472601</v>
+        <v>0.02619880710141667</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04849248169461293</v>
+        <v>0.04748687671495652</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>473403</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465953</v>
+        <v>465894</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>477938</v>
+        <v>477802</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9797012473362234</v>
+        <v>0.9797012473362233</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9642823871148328</v>
+        <v>0.9641606825788995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9890848226448979</v>
+        <v>0.9888041767431012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -2812,19 +2812,19 @@
         <v>400249</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>390758</v>
+        <v>389838</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>407460</v>
+        <v>406893</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9473532623637763</v>
+        <v>0.9473532623637764</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9248876193618729</v>
+        <v>0.9227115029472683</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9644202822817065</v>
+        <v>0.963078255404903</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1029</v>
@@ -2833,19 +2833,19 @@
         <v>873653</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>861784</v>
+        <v>862695</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>881859</v>
+        <v>881976</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9646115947682689</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9515075183053868</v>
+        <v>0.952513123285043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9736724361452739</v>
+        <v>0.9738011928985831</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>15201</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8408</v>
+        <v>8665</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24935</v>
+        <v>25658</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03229167991054852</v>
+        <v>0.03229167991054853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01786094357417398</v>
+        <v>0.01840614091727964</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0529685120721879</v>
+        <v>0.05450450883165339</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2958,19 +2958,19 @@
         <v>15024</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9754</v>
+        <v>9719</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21814</v>
+        <v>22015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08012759027160174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05202276029449233</v>
+        <v>0.0518365310495987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1163427348167612</v>
+        <v>0.1174175948467032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -2979,19 +2979,19 @@
         <v>30225</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21246</v>
+        <v>21132</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41607</v>
+        <v>41102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04591755119688664</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03227626227914691</v>
+        <v>0.03210399567975031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06320988828585899</v>
+        <v>0.06244155888117933</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>455542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445808</v>
+        <v>445085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>462335</v>
+        <v>462078</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9677083200894515</v>
+        <v>0.9677083200894514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9470314879278121</v>
+        <v>0.9454954911683466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9821390564258261</v>
+        <v>0.9815938590827202</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>265</v>
@@ -3029,19 +3029,19 @@
         <v>172473</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165683</v>
+        <v>165482</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177743</v>
+        <v>177778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9198724097283983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8836572651832389</v>
+        <v>0.8825824051532968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9479772397055077</v>
+        <v>0.9481634689504014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>737</v>
@@ -3050,19 +3050,19 @@
         <v>628016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616634</v>
+        <v>617139</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636995</v>
+        <v>637109</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9540824488031132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9367901117141411</v>
+        <v>0.9375584411188206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.967723737720853</v>
+        <v>0.9678960043202497</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>38882</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27583</v>
+        <v>27733</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53374</v>
+        <v>52910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03435267153145143</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02437039385721133</v>
+        <v>0.02450274220352898</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0471565606875331</v>
+        <v>0.04674678001288785</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -3175,19 +3175,19 @@
         <v>53976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42691</v>
+        <v>42921</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67707</v>
+        <v>66217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0627813079868992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0496546343308281</v>
+        <v>0.04992255664000258</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07875155147823948</v>
+        <v>0.07701855324938767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -3196,19 +3196,19 @@
         <v>92858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75907</v>
+        <v>76503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111568</v>
+        <v>112415</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0466250399168348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03811364779463136</v>
+        <v>0.03841290630947517</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0560193139388295</v>
+        <v>0.05644478296253683</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1092961</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1078469</v>
+        <v>1078933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1104260</v>
+        <v>1104110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9656473284685486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9528434393124672</v>
+        <v>0.9532532199871122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9756296061427888</v>
+        <v>0.9754972577964708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1150</v>
@@ -3246,19 +3246,19 @@
         <v>805777</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>792046</v>
+        <v>793536</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>817062</v>
+        <v>816832</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9372186920131008</v>
+        <v>0.9372186920131007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9212484485217605</v>
+        <v>0.9229814467506126</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9503453656691712</v>
+        <v>0.9500774433599976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2229</v>
@@ -3267,19 +3267,19 @@
         <v>1898737</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1880027</v>
+        <v>1879180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1915688</v>
+        <v>1915092</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9533749600831651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9439806860611705</v>
+        <v>0.943555217037463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9618863522053684</v>
+        <v>0.9615870936905249</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>16860</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10416</v>
+        <v>8974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28141</v>
+        <v>24784</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02973730182084701</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01837073445264397</v>
+        <v>0.01582796308097875</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04963352401139824</v>
+        <v>0.04371291280549185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>97</v>
@@ -3392,19 +3392,19 @@
         <v>57635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46082</v>
+        <v>47433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70441</v>
+        <v>70055</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06942957246878735</v>
+        <v>0.06942957246878736</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05551222832220112</v>
+        <v>0.05714001206943968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08485592990198849</v>
+        <v>0.08439090428816313</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -3413,19 +3413,19 @@
         <v>74496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61754</v>
+        <v>60863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88630</v>
+        <v>87964</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05332155258559636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04420136200566999</v>
+        <v>0.04356349959188911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06343861583075891</v>
+        <v>0.06296204221349901</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>550116</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>538835</v>
+        <v>542192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>556560</v>
+        <v>558002</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9702626981791531</v>
+        <v>0.9702626981791529</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9503664759886019</v>
+        <v>0.9562870871945078</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.981629265547356</v>
+        <v>0.9841720369190204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1192</v>
@@ -3463,19 +3463,19 @@
         <v>772492</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>759686</v>
+        <v>760072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>784045</v>
+        <v>782694</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9305704275312126</v>
+        <v>0.9305704275312127</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9151440700980115</v>
+        <v>0.915609095711837</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9444877716777987</v>
+        <v>0.94285998793056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1720</v>
@@ -3484,19 +3484,19 @@
         <v>1322607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1308473</v>
+        <v>1309139</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1335349</v>
+        <v>1336240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9466784474144037</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9365613841692411</v>
+        <v>0.9370379577865009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9557986379943301</v>
+        <v>0.9564365004081108</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>6752</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2059</v>
+        <v>1919</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19858</v>
+        <v>18947</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02846281860132283</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008678176671159303</v>
+        <v>0.008090217506210425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08371016476708272</v>
+        <v>0.07986762100206006</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -3609,19 +3609,19 @@
         <v>51320</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39430</v>
+        <v>39754</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65811</v>
+        <v>66999</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06088706920273536</v>
+        <v>0.06088706920273534</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0467807614123583</v>
+        <v>0.04716535417221229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07807979736792114</v>
+        <v>0.0794895905177329</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -3630,19 +3630,19 @@
         <v>58072</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45578</v>
+        <v>44296</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74520</v>
+        <v>74982</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05376556188660134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04219820343568392</v>
+        <v>0.04101126570455034</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06899398298642104</v>
+        <v>0.06942164752243994</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>230476</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217370</v>
+        <v>218281</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235169</v>
+        <v>235309</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9715371813986773</v>
+        <v>0.9715371813986771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9162898352329173</v>
+        <v>0.92013237899794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9913218233288409</v>
+        <v>0.9919097824937898</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1085</v>
@@ -3680,19 +3680,19 @@
         <v>791551</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>777060</v>
+        <v>775872</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>803441</v>
+        <v>803117</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9391129307972647</v>
+        <v>0.9391129307972645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9219202026320789</v>
+        <v>0.9205104094822669</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9532192385876418</v>
+        <v>0.9528346458277877</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1192</v>
@@ -3701,19 +3701,19 @@
         <v>1022027</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1005579</v>
+        <v>1005117</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1034521</v>
+        <v>1035803</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9462344381133987</v>
+        <v>0.9462344381133985</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9310060170135789</v>
+        <v>0.9305783524775602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9578017965643161</v>
+        <v>0.9589887342954495</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>94333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77258</v>
+        <v>76022</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>117110</v>
+        <v>117497</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0274433400781114</v>
+        <v>0.02744334007811139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02247584531578048</v>
+        <v>0.02211616808491627</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03406946839865337</v>
+        <v>0.03418215956115711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>331</v>
@@ -3826,19 +3826,19 @@
         <v>223202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199332</v>
+        <v>199968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>245354</v>
+        <v>250696</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06146865883877081</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05489490870479834</v>
+        <v>0.05507005921300753</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06756914206336953</v>
+        <v>0.06904034468351618</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>425</v>
@@ -3847,19 +3847,19 @@
         <v>317535</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>284474</v>
+        <v>287319</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>354051</v>
+        <v>352564</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04492234800078585</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04024511356675001</v>
+        <v>0.04064763615810824</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05008824771536461</v>
+        <v>0.04987785703937193</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3343056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3320279</v>
+        <v>3319892</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3360131</v>
+        <v>3361367</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9725566599218887</v>
+        <v>0.9725566599218888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9659305316013471</v>
+        <v>0.9658178404388429</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9775241546842196</v>
+        <v>0.9778838319150838</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4907</v>
@@ -3897,19 +3897,19 @@
         <v>3407948</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3385796</v>
+        <v>3380454</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3431818</v>
+        <v>3431182</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9385313411612293</v>
+        <v>0.9385313411612292</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9324308579366305</v>
+        <v>0.9309596553164834</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9451050912952018</v>
+        <v>0.944929940786992</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8108</v>
@@ -3918,19 +3918,19 @@
         <v>6751004</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6714488</v>
+        <v>6715975</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6784065</v>
+        <v>6781220</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.955077651999214</v>
+        <v>0.9550776519992142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9499117522846353</v>
+        <v>0.950122142960628</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9597548864332498</v>
+        <v>0.9593523638418918</v>
       </c>
     </row>
     <row r="24">
